--- a/Szemelyes_kompetenciak_5-6_oszt.xlsx
+++ b/Szemelyes_kompetenciak_5-6_oszt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\alkalmazásaim\szocialis_komp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\szoc-es tarsas_kom_kerdoiv\szocialis_komp\steamlit cloud\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F64019C-72A5-4C92-9EC5-54EB84FC4EB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71A92BC-B371-4B8B-97F2-9C08105A8BEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="74">
   <si>
     <t>egyáltalán nem jellemző rám</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>igen</t>
+  </si>
+  <si>
+    <t>Kérdés</t>
+  </si>
+  <si>
+    <t>Kategória</t>
   </si>
 </sst>
 </file>
@@ -617,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,6 +638,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
